--- a/Code/Results/Cases/Case_8_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.013374337994884</v>
+        <v>1.010350644692455</v>
       </c>
       <c r="D2">
-        <v>1.033891361088453</v>
+        <v>1.031059552795069</v>
       </c>
       <c r="E2">
-        <v>1.027854027194238</v>
+        <v>1.025324073980651</v>
       </c>
       <c r="F2">
-        <v>1.038370248669045</v>
+        <v>1.036029479147796</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053719735388415</v>
+        <v>1.052281663005117</v>
       </c>
       <c r="J2">
-        <v>1.035162253130266</v>
+        <v>1.032226116518088</v>
       </c>
       <c r="K2">
-        <v>1.044897895127114</v>
+        <v>1.042102494696919</v>
       </c>
       <c r="L2">
-        <v>1.03893848480285</v>
+        <v>1.036441527383141</v>
       </c>
       <c r="M2">
-        <v>1.049319704953464</v>
+        <v>1.047008688673164</v>
       </c>
       <c r="N2">
-        <v>1.036632302264491</v>
+        <v>1.027666094197192</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047605594279018</v>
+        <v>1.045776595375256</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042816979429962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040849138454353</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02324259648724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017222369203774</v>
+        <v>1.013855222671185</v>
       </c>
       <c r="D3">
-        <v>1.036496163700444</v>
+        <v>1.033352360517748</v>
       </c>
       <c r="E3">
-        <v>1.030830044504873</v>
+        <v>1.028008819583265</v>
       </c>
       <c r="F3">
-        <v>1.041190217265102</v>
+        <v>1.038587631047724</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054553534560492</v>
+        <v>1.052955389037279</v>
       </c>
       <c r="J3">
-        <v>1.037254297314739</v>
+        <v>1.033975176609016</v>
       </c>
       <c r="K3">
-        <v>1.046682431065791</v>
+        <v>1.04357556130785</v>
       </c>
       <c r="L3">
-        <v>1.041083079283707</v>
+        <v>1.038295438916992</v>
       </c>
       <c r="M3">
-        <v>1.051321851887938</v>
+        <v>1.048749481000215</v>
       </c>
       <c r="N3">
-        <v>1.038727317391657</v>
+        <v>1.028646742842705</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049190142222976</v>
+        <v>1.047154304506467</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044076138218694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041887786311686</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023535185781934</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019668759379998</v>
+        <v>1.016085278875525</v>
       </c>
       <c r="D4">
-        <v>1.03815369241997</v>
+        <v>1.034812731592828</v>
       </c>
       <c r="E4">
-        <v>1.032727850808546</v>
+        <v>1.029722891683367</v>
       </c>
       <c r="F4">
-        <v>1.042988721161049</v>
+        <v>1.040220916716225</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055069886404218</v>
+        <v>1.053370373504611</v>
       </c>
       <c r="J4">
-        <v>1.038582375653635</v>
+        <v>1.035086283322276</v>
       </c>
       <c r="K4">
-        <v>1.047812451427971</v>
+        <v>1.044508396845899</v>
       </c>
       <c r="L4">
-        <v>1.042446695765666</v>
+        <v>1.039475349106889</v>
       </c>
       <c r="M4">
-        <v>1.05259458342625</v>
+        <v>1.049856985741471</v>
       </c>
       <c r="N4">
-        <v>1.040057281754127</v>
+        <v>1.029269705102915</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050197411265934</v>
+        <v>1.048030811738754</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044876040199191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042548348992135</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023718034513403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020690074821288</v>
+        <v>1.017016608574843</v>
       </c>
       <c r="D5">
-        <v>1.038847567792333</v>
+        <v>1.035424565003781</v>
       </c>
       <c r="E5">
-        <v>1.033521951806617</v>
+        <v>1.030440515031589</v>
       </c>
       <c r="F5">
-        <v>1.043741327748824</v>
+        <v>1.040904775000647</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055283307095857</v>
+        <v>1.053541562983372</v>
       </c>
       <c r="J5">
-        <v>1.039137613059173</v>
+        <v>1.035551071828131</v>
       </c>
       <c r="K5">
-        <v>1.048285269557748</v>
+        <v>1.044899082410275</v>
       </c>
       <c r="L5">
-        <v>1.043017061847506</v>
+        <v>1.039969174543471</v>
       </c>
       <c r="M5">
-        <v>1.053126908555803</v>
+        <v>1.050320493393183</v>
       </c>
       <c r="N5">
-        <v>1.040613307660468</v>
+        <v>1.02953029636084</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050618705226435</v>
+        <v>1.048397643096356</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.045217478781277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042832437682039</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023794445671525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020864583419751</v>
+        <v>1.017175613187939</v>
       </c>
       <c r="D6">
-        <v>1.038968053113251</v>
+        <v>1.035531040363975</v>
       </c>
       <c r="E6">
-        <v>1.033658260980556</v>
+        <v>1.030563650321473</v>
       </c>
       <c r="F6">
-        <v>1.04387053108151</v>
+        <v>1.041022181334492</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055321040594552</v>
+        <v>1.053572083394132</v>
       </c>
       <c r="J6">
-        <v>1.039234018558367</v>
+        <v>1.035631894534507</v>
       </c>
       <c r="K6">
-        <v>1.048368634856195</v>
+        <v>1.044968420740341</v>
       </c>
       <c r="L6">
-        <v>1.043115818682348</v>
+        <v>1.040054746538054</v>
       </c>
       <c r="M6">
-        <v>1.053219136947254</v>
+        <v>1.050400912375433</v>
       </c>
       <c r="N6">
-        <v>1.040709850066528</v>
+        <v>1.029575610875427</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050691696804888</v>
+        <v>1.048461288638697</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.045285107423174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042891032086427</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023808488483352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019692130140182</v>
+        <v>1.016126544519465</v>
       </c>
       <c r="D7">
-        <v>1.038174648622705</v>
+        <v>1.034845690557627</v>
       </c>
       <c r="E7">
-        <v>1.032747483447722</v>
+        <v>1.029757772736626</v>
       </c>
       <c r="F7">
-        <v>1.043007345416495</v>
+        <v>1.040251679448974</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055078690742499</v>
+        <v>1.053385276250212</v>
       </c>
       <c r="J7">
-        <v>1.03859926765091</v>
+        <v>1.035120594711939</v>
       </c>
       <c r="K7">
-        <v>1.047830322717222</v>
+        <v>1.04453812371576</v>
       </c>
       <c r="L7">
-        <v>1.042463235242762</v>
+        <v>1.039506953111147</v>
       </c>
       <c r="M7">
-        <v>1.052610168328882</v>
+        <v>1.049884564899356</v>
       </c>
       <c r="N7">
-        <v>1.040074197739975</v>
+        <v>1.029340993371306</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050209745508274</v>
+        <v>1.048052638567817</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044908650353525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042591374098602</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023726970992874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014696002276115</v>
+        <v>1.011616801675293</v>
       </c>
       <c r="D8">
-        <v>1.034791835941951</v>
+        <v>1.0318959485696</v>
       </c>
       <c r="E8">
-        <v>1.028876830728754</v>
+        <v>1.026300172050989</v>
       </c>
       <c r="F8">
-        <v>1.039339306823642</v>
+        <v>1.036951444525866</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054013619787467</v>
+        <v>1.052542499628346</v>
       </c>
       <c r="J8">
-        <v>1.035886326823168</v>
+        <v>1.0328933092277</v>
       </c>
       <c r="K8">
-        <v>1.045520283434279</v>
+        <v>1.042660529778247</v>
       </c>
       <c r="L8">
-        <v>1.039679353467166</v>
+        <v>1.037135296320335</v>
       </c>
       <c r="M8">
-        <v>1.050011518455653</v>
+        <v>1.04765310886275</v>
       </c>
       <c r="N8">
-        <v>1.037357404225079</v>
+        <v>1.028197992520698</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048153112750353</v>
+        <v>1.046286606873309</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043279823623263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041268781452154</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023360948259191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005528712455895</v>
+        <v>1.003292708330012</v>
       </c>
       <c r="D9">
-        <v>1.028591112875185</v>
+        <v>1.026454076775358</v>
       </c>
       <c r="E9">
-        <v>1.021819900497454</v>
+        <v>1.019956586755448</v>
       </c>
       <c r="F9">
-        <v>1.032653858388293</v>
+        <v>1.03090573645057</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051946773225411</v>
+        <v>1.050863655225401</v>
       </c>
       <c r="J9">
-        <v>1.030887736936997</v>
+        <v>1.028729725990158</v>
       </c>
       <c r="K9">
-        <v>1.041236745979871</v>
+        <v>1.03913205540544</v>
       </c>
       <c r="L9">
-        <v>1.034568613686638</v>
+        <v>1.032733972271491</v>
       </c>
       <c r="M9">
-        <v>1.04523846870502</v>
+        <v>1.043516528675442</v>
       </c>
       <c r="N9">
-        <v>1.032351715767924</v>
+        <v>1.025882734516679</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044375593780502</v>
+        <v>1.043012799703502</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040247949113069</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038770495255199</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022645914725563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9992224503195022</v>
+        <v>0.9976695978827039</v>
       </c>
       <c r="D10">
-        <v>1.024353329226354</v>
+        <v>1.022807144250786</v>
       </c>
       <c r="E10">
-        <v>1.017023244833832</v>
+        <v>1.015736246212864</v>
       </c>
       <c r="F10">
-        <v>1.028142830495858</v>
+        <v>1.026904191551332</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.050470686726455</v>
+        <v>1.049688195111559</v>
       </c>
       <c r="J10">
-        <v>1.027466951939046</v>
+        <v>1.025975981796334</v>
       </c>
       <c r="K10">
-        <v>1.038296371170429</v>
+        <v>1.036776467046334</v>
       </c>
       <c r="L10">
-        <v>1.031091794407888</v>
+        <v>1.029827074030403</v>
       </c>
       <c r="M10">
-        <v>1.042021892453069</v>
+        <v>1.040804099045554</v>
       </c>
       <c r="N10">
-        <v>1.028926072862906</v>
+        <v>1.024571383909994</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.041881125355695</v>
+        <v>1.040917384384353</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.038185675598768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037123395327697</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022168907500544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9969002754647932</v>
+        <v>0.9957006973502697</v>
       </c>
       <c r="D11">
-        <v>1.022909132792392</v>
+        <v>1.021646690743565</v>
       </c>
       <c r="E11">
-        <v>1.015449630513847</v>
+        <v>1.014458529029351</v>
       </c>
       <c r="F11">
-        <v>1.026914814580804</v>
+        <v>1.025932682846751</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050018466869539</v>
+        <v>1.049379963852285</v>
       </c>
       <c r="J11">
-        <v>1.026402577585556</v>
+        <v>1.025253432590614</v>
       </c>
       <c r="K11">
-        <v>1.037411572922988</v>
+        <v>1.036171610890538</v>
       </c>
       <c r="L11">
-        <v>1.030085954608832</v>
+        <v>1.029112834303715</v>
       </c>
       <c r="M11">
-        <v>1.041346400779445</v>
+        <v>1.040381574957375</v>
       </c>
       <c r="N11">
-        <v>1.027860186975749</v>
+        <v>1.024610219971496</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04178110394429</v>
+        <v>1.041017938465993</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.037592813839164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036731704926183</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022091156588098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.996193844140763</v>
+        <v>0.9950969531186428</v>
       </c>
       <c r="D12">
-        <v>1.022513595993769</v>
+        <v>1.021332288589621</v>
       </c>
       <c r="E12">
-        <v>1.015050325989941</v>
+        <v>1.014143031267597</v>
       </c>
       <c r="F12">
-        <v>1.026725135881407</v>
+        <v>1.025817135779502</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049920071952876</v>
+        <v>1.049322735909257</v>
       </c>
       <c r="J12">
-        <v>1.026160165423906</v>
+        <v>1.025110278058931</v>
       </c>
       <c r="K12">
-        <v>1.037221818516155</v>
+        <v>1.036061897979402</v>
       </c>
       <c r="L12">
-        <v>1.029894756272427</v>
+        <v>1.029004198199589</v>
       </c>
       <c r="M12">
-        <v>1.041357631077748</v>
+        <v>1.040465889345746</v>
       </c>
       <c r="N12">
-        <v>1.027617430561025</v>
+        <v>1.02472284607209</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042115250392798</v>
+        <v>1.041410130815645</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.037458652211223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036654136308002</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02209577326339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9966997399245372</v>
+        <v>0.9955023986218003</v>
       </c>
       <c r="D13">
-        <v>1.02291643512099</v>
+        <v>1.021654195009688</v>
       </c>
       <c r="E13">
-        <v>1.015542976843015</v>
+        <v>1.014548143332849</v>
       </c>
       <c r="F13">
-        <v>1.027343087453005</v>
+        <v>1.026362598295309</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.050102065462693</v>
+        <v>1.049463767238088</v>
       </c>
       <c r="J13">
-        <v>1.026551297795916</v>
+        <v>1.025405010051688</v>
       </c>
       <c r="K13">
-        <v>1.0375747731872</v>
+        <v>1.036335287884468</v>
       </c>
       <c r="L13">
-        <v>1.03033528041863</v>
+        <v>1.029358715883603</v>
       </c>
       <c r="M13">
-        <v>1.04192219838229</v>
+        <v>1.040959181280514</v>
       </c>
       <c r="N13">
-        <v>1.028009118385866</v>
+        <v>1.024845487552602</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042837443255965</v>
+        <v>1.042076155063492</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037705717209812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036844698998614</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022169402118144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9976035101186568</v>
+        <v>0.9962478667048926</v>
       </c>
       <c r="D14">
-        <v>1.023561081179612</v>
+        <v>1.022171858981968</v>
       </c>
       <c r="E14">
-        <v>1.016291837611248</v>
+        <v>1.015162102169295</v>
       </c>
       <c r="F14">
-        <v>1.028141753427225</v>
+        <v>1.027047220013109</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050356647774097</v>
+        <v>1.049654017635729</v>
       </c>
       <c r="J14">
-        <v>1.027112123919137</v>
+        <v>1.025813454658966</v>
       </c>
       <c r="K14">
-        <v>1.038068345306307</v>
+        <v>1.036703855950703</v>
       </c>
       <c r="L14">
-        <v>1.030929492571513</v>
+        <v>1.029820239678961</v>
       </c>
       <c r="M14">
-        <v>1.042568079825017</v>
+        <v>1.041492801055989</v>
       </c>
       <c r="N14">
-        <v>1.02857074094651</v>
+        <v>1.02493922648017</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043520827282716</v>
+        <v>1.042670907817379</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.038056105989479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037106841180702</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022253834523851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.998092962701297</v>
+        <v>0.9966563253518576</v>
       </c>
       <c r="D15">
-        <v>1.02389904564901</v>
+        <v>1.022444844120698</v>
       </c>
       <c r="E15">
-        <v>1.016676368883726</v>
+        <v>1.015478247330477</v>
       </c>
       <c r="F15">
-        <v>1.028524415556214</v>
+        <v>1.027371523884703</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050483348070684</v>
+        <v>1.049747778110706</v>
       </c>
       <c r="J15">
-        <v>1.027393721882505</v>
+        <v>1.026016934434002</v>
       </c>
       <c r="K15">
-        <v>1.038314403485314</v>
+        <v>1.036885895197977</v>
       </c>
       <c r="L15">
-        <v>1.031220279773098</v>
+        <v>1.030043712870959</v>
       </c>
       <c r="M15">
-        <v>1.042858676542767</v>
+        <v>1.041725910085681</v>
       </c>
       <c r="N15">
-        <v>1.028852738811285</v>
+        <v>1.024973259791579</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043787951279305</v>
+        <v>1.042892616004575</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.038235924522001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037241970006985</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022292601663237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00067233837124</v>
+        <v>0.9988427333925177</v>
       </c>
       <c r="D16">
-        <v>1.02562656816459</v>
+        <v>1.023854244209362</v>
       </c>
       <c r="E16">
-        <v>1.018620214257994</v>
+        <v>1.017092552739351</v>
       </c>
       <c r="F16">
-        <v>1.030343450512063</v>
+        <v>1.028906112883309</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051096375977024</v>
+        <v>1.050199364056188</v>
       </c>
       <c r="J16">
-        <v>1.028782606339079</v>
+        <v>1.02702540927669</v>
       </c>
       <c r="K16">
-        <v>1.03951267937095</v>
+        <v>1.037770304353704</v>
       </c>
       <c r="L16">
-        <v>1.032625505945122</v>
+        <v>1.03112411241326</v>
       </c>
       <c r="M16">
-        <v>1.044150501951659</v>
+        <v>1.042737156613741</v>
       </c>
       <c r="N16">
-        <v>1.030243595643095</v>
+        <v>1.025134738088056</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04477040480221</v>
+        <v>1.043653268973658</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.039086294145522</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.037870729662047</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022466490504614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002178371952512</v>
+        <v>1.000147106461766</v>
       </c>
       <c r="D17">
-        <v>1.026614351799662</v>
+        <v>1.024675646068145</v>
       </c>
       <c r="E17">
-        <v>1.019719881080084</v>
+        <v>1.01802354097946</v>
       </c>
       <c r="F17">
-        <v>1.031317012548233</v>
+        <v>1.029732211947296</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051429520067353</v>
+        <v>1.050447936061218</v>
       </c>
       <c r="J17">
-        <v>1.029553095155975</v>
+        <v>1.027599632758877</v>
       </c>
       <c r="K17">
-        <v>1.040171290130644</v>
+        <v>1.03826442586382</v>
       </c>
       <c r="L17">
-        <v>1.033390763678192</v>
+        <v>1.031722763741718</v>
       </c>
       <c r="M17">
-        <v>1.044797352610992</v>
+        <v>1.043238265293573</v>
       </c>
       <c r="N17">
-        <v>1.031015178642487</v>
+        <v>1.025269059568693</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045153069284979</v>
+        <v>1.043920613854348</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.03955452820907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038222915863872</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022556789877119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002889630748925</v>
+        <v>1.000781337165139</v>
       </c>
       <c r="D18">
-        <v>1.027038996819402</v>
+        <v>1.025034963482681</v>
       </c>
       <c r="E18">
-        <v>1.020172463488713</v>
+        <v>1.01841237766594</v>
       </c>
       <c r="F18">
-        <v>1.031616885264395</v>
+        <v>1.02997446256708</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051546056357644</v>
+        <v>1.050531181767935</v>
       </c>
       <c r="J18">
-        <v>1.029843914050691</v>
+        <v>1.027814858985884</v>
       </c>
       <c r="K18">
-        <v>1.040406771962577</v>
+        <v>1.038435113853651</v>
       </c>
       <c r="L18">
-        <v>1.033651847498693</v>
+        <v>1.031920681898753</v>
       </c>
       <c r="M18">
-        <v>1.044911309181032</v>
+        <v>1.043295106758506</v>
       </c>
       <c r="N18">
-        <v>1.031306410533391</v>
+        <v>1.025307527930691</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04500634093746</v>
+        <v>1.043728471289771</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039709435261748</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.038330864454043</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022573168963321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002887708497061</v>
+        <v>1.000800685858485</v>
       </c>
       <c r="D19">
-        <v>1.026963561552571</v>
+        <v>1.024976408692639</v>
       </c>
       <c r="E19">
-        <v>1.020042728702203</v>
+        <v>1.01830191024676</v>
       </c>
       <c r="F19">
-        <v>1.031309566694579</v>
+        <v>1.029681419107135</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051474067461121</v>
+        <v>1.050467676423625</v>
       </c>
       <c r="J19">
-        <v>1.029708071761748</v>
+        <v>1.027699027783649</v>
       </c>
       <c r="K19">
-        <v>1.04027041443167</v>
+        <v>1.038315198375676</v>
       </c>
       <c r="L19">
-        <v>1.033461501997326</v>
+        <v>1.03174914307887</v>
       </c>
       <c r="M19">
-        <v>1.044547121561207</v>
+        <v>1.042944847335444</v>
       </c>
       <c r="N19">
-        <v>1.031170375332817</v>
+        <v>1.025219433497145</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044394240326547</v>
+        <v>1.043126972026576</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039619393419974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038253079222201</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02252368147281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000881888704506</v>
+        <v>0.9990884133282847</v>
       </c>
       <c r="D20">
-        <v>1.025479815775778</v>
+        <v>1.023737102539377</v>
       </c>
       <c r="E20">
-        <v>1.018288043649514</v>
+        <v>1.016797451628125</v>
       </c>
       <c r="F20">
-        <v>1.029333399711795</v>
+        <v>1.027919280365799</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.050873129689128</v>
+        <v>1.04999084654581</v>
       </c>
       <c r="J20">
-        <v>1.028378857298237</v>
+        <v>1.026654520395654</v>
       </c>
       <c r="K20">
-        <v>1.039088956283542</v>
+        <v>1.037375021577307</v>
       </c>
       <c r="L20">
-        <v>1.032016765729028</v>
+        <v>1.030551231554389</v>
       </c>
       <c r="M20">
-        <v>1.042879348164337</v>
+        <v>1.041488347159582</v>
       </c>
       <c r="N20">
-        <v>1.029839273232305</v>
+        <v>1.024756711169615</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042549202455814</v>
+        <v>1.041448374847979</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038787970175571</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037592642567616</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022289685369139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9960552728589472</v>
+        <v>0.9950712496877008</v>
       </c>
       <c r="D21">
-        <v>1.022217423329433</v>
+        <v>1.021124394146801</v>
       </c>
       <c r="E21">
-        <v>1.014593212898123</v>
+        <v>1.013789449197577</v>
       </c>
       <c r="F21">
-        <v>1.025810065165132</v>
+        <v>1.02498266584407</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.049698174532166</v>
+        <v>1.049145402508468</v>
       </c>
       <c r="J21">
-        <v>1.025718852376623</v>
+        <v>1.024776495134705</v>
       </c>
       <c r="K21">
-        <v>1.036789760372083</v>
+        <v>1.035716313661692</v>
       </c>
       <c r="L21">
-        <v>1.029303288135151</v>
+        <v>1.028514202309838</v>
       </c>
       <c r="M21">
-        <v>1.040318418649643</v>
+        <v>1.03950570340157</v>
       </c>
       <c r="N21">
-        <v>1.027175490798595</v>
+        <v>1.024513569218514</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040481714411552</v>
+        <v>1.039838504480132</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037165585032517</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036423429168401</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02196479250451</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9929793506666773</v>
+        <v>0.9924920453601157</v>
       </c>
       <c r="D22">
-        <v>1.020144470450763</v>
+        <v>1.01945260571825</v>
       </c>
       <c r="E22">
-        <v>1.012256555581849</v>
+        <v>1.011874944037488</v>
       </c>
       <c r="F22">
-        <v>1.023598530709909</v>
+        <v>1.023132554604721</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048939220431541</v>
+        <v>1.048589560947772</v>
       </c>
       <c r="J22">
-        <v>1.024030810023577</v>
+        <v>1.023565344043524</v>
       </c>
       <c r="K22">
-        <v>1.035327152658326</v>
+        <v>1.034648307618992</v>
       </c>
       <c r="L22">
-        <v>1.027589056171957</v>
+        <v>1.027214770289963</v>
       </c>
       <c r="M22">
-        <v>1.038716557009604</v>
+        <v>1.038259270180623</v>
       </c>
       <c r="N22">
-        <v>1.025485051231786</v>
+        <v>1.024306853516297</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039213947176319</v>
+        <v>1.038852034572807</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.036118001889635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035653535340764</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021753248792382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9946071122477061</v>
+        <v>0.9938291064609552</v>
       </c>
       <c r="D23">
-        <v>1.021237007359309</v>
+        <v>1.020313210137311</v>
       </c>
       <c r="E23">
-        <v>1.013490803322914</v>
+        <v>1.012861603417239</v>
       </c>
       <c r="F23">
-        <v>1.024766906749586</v>
+        <v>1.024090222222358</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049339204359161</v>
+        <v>1.048872164562655</v>
       </c>
       <c r="J23">
-        <v>1.024920623483524</v>
+        <v>1.024176460053558</v>
       </c>
       <c r="K23">
-        <v>1.03609582589153</v>
+        <v>1.035188969890257</v>
       </c>
       <c r="L23">
-        <v>1.028492925131614</v>
+        <v>1.027875490955356</v>
       </c>
       <c r="M23">
-        <v>1.03956135757257</v>
+        <v>1.038896967655283</v>
       </c>
       <c r="N23">
-        <v>1.026376128328909</v>
+        <v>1.024329368734407</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039882551064097</v>
+        <v>1.039356730347336</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036651875608079</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036025249200815</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021856822534647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000901724845072</v>
+        <v>0.9991083584686232</v>
       </c>
       <c r="D24">
-        <v>1.025475787870237</v>
+        <v>1.023732753151012</v>
       </c>
       <c r="E24">
-        <v>1.018282802079427</v>
+        <v>1.016792530979127</v>
       </c>
       <c r="F24">
-        <v>1.029303767245063</v>
+        <v>1.027889492305002</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050862940600012</v>
+        <v>1.049980480489226</v>
       </c>
       <c r="J24">
-        <v>1.028365107740076</v>
+        <v>1.026640774656848</v>
       </c>
       <c r="K24">
-        <v>1.039069818079343</v>
+        <v>1.037355530652229</v>
       </c>
       <c r="L24">
-        <v>1.031996282200187</v>
+        <v>1.030531031735795</v>
       </c>
       <c r="M24">
-        <v>1.042835102930161</v>
+        <v>1.041443921024037</v>
       </c>
       <c r="N24">
-        <v>1.029825504148194</v>
+        <v>1.0247410673281</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042473498585837</v>
+        <v>1.041372473550898</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038747140336908</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037548864170608</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022280153257244</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007957246407548</v>
+        <v>1.005469323758424</v>
       </c>
       <c r="D25">
-        <v>1.03023928378872</v>
+        <v>1.027882312910369</v>
       </c>
       <c r="E25">
-        <v>1.023685990542734</v>
+        <v>1.021609676951946</v>
       </c>
       <c r="F25">
-        <v>1.034421204915144</v>
+        <v>1.032484412470646</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052512039327274</v>
+        <v>1.051316748626506</v>
       </c>
       <c r="J25">
-        <v>1.032219753210052</v>
+        <v>1.029814014941017</v>
       </c>
       <c r="K25">
-        <v>1.042385633354061</v>
+        <v>1.040062679126269</v>
       </c>
       <c r="L25">
-        <v>1.035927411544057</v>
+        <v>1.033881542976719</v>
       </c>
       <c r="M25">
-        <v>1.046507682216769</v>
+        <v>1.044598542364584</v>
       </c>
       <c r="N25">
-        <v>1.033685623656871</v>
+        <v>1.02642473758142</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045380085124415</v>
+        <v>1.043869137516324</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041088720769468</v>
+        <v>1.039459781000657</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022836664863624</v>
       </c>
     </row>
   </sheetData>
